--- a/biology/Botanique/Tovariaceae/Tovariaceae.xlsx
+++ b/biology/Botanique/Tovariaceae/Tovariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tovariacées ne comprend que le genre Tovaria et qu'une espèce, Tovaria trifolia.
 C'est une grande plante herbacée ou semi-ligneuse, annuelle ou pérenne, à feuilles composées aromatiques, des régions subtropicales à tropicales d'Amérique.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tovaria, donné en hommage au médecin espagnol du XVIIIe siècle, Simón Tovario[2] qui publica une flore du Pérou[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tovaria, donné en hommage au médecin espagnol du XVIIIe siècle, Simón Tovario qui publica une flore du Pérou.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[4] situe cette famille dans l'ordre des Capparales.
-La classification phylogénétique APG III (2009)[5] la situe dans les Brassicales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situe cette famille dans l'ordre des Capparales.
+La classification phylogénétique APG III (2009) la situe dans les Brassicales.
 L'espèce Tovaria trifolia (L.) Neck. ex Baker, qui appartenait auparavant au genre Tovaria a été réassignée au genre Maianthemum et se nomme dorénavant Maianthemum trifolium.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[6], NCBI  (21 juin 2010)[7] et DELTA Angio           (21 juin 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010), NCBI  (21 juin 2010) et DELTA Angio           (21 juin 2010) :
 Tovaria Ruiz &amp; Pav.</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) :
 genre Tovaria
 Tovaria pendula</t>
         </is>
